--- a/dec_first/data/dec_first_input.xlsx
+++ b/dec_first/data/dec_first_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emelievonschantz/Advent of Code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emelievonschantz/Advent of Code/dec_first/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7961AC-55ED-7A49-A7DB-4EDB6D952F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CD504-78DB-9C43-9BAA-EC136EA9A22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{4CE34D85-738E-794A-BCF0-8C7284CE60D6}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
